--- a/database/industries/ghaza/ghesalem/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/ghesalem/product/quarterly_seprated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غسالم-سالمین‌</t>
@@ -36,9 +36,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,10 +60,10 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>انواع بیسکویت</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>ویفان</t>
@@ -762,43 +762,43 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2885</v>
-      </c>
-      <c r="F11" s="11">
         <v>3063</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>3090</v>
+        <v>2599</v>
       </c>
       <c r="H11" s="11">
-        <v>2599</v>
+        <v>3279</v>
       </c>
       <c r="I11" s="11">
-        <v>3279</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -810,19 +810,19 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>202</v>
-      </c>
-      <c r="F13" s="11">
         <v>182</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="H13" s="11">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="I13" s="11">
-        <v>192</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -834,19 +834,19 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>5071</v>
-      </c>
-      <c r="F14" s="13">
         <v>4982</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="13">
-        <v>5613</v>
+        <v>3892</v>
       </c>
       <c r="H14" s="13">
-        <v>3892</v>
+        <v>4661</v>
       </c>
       <c r="I14" s="13">
-        <v>4661</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -858,19 +858,19 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>474</v>
-      </c>
-      <c r="F15" s="11">
         <v>750</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="11">
-        <v>619</v>
+        <v>365</v>
       </c>
       <c r="H15" s="11">
-        <v>365</v>
+        <v>516</v>
       </c>
       <c r="I15" s="11">
-        <v>516</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -882,19 +882,19 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>15</v>
-      </c>
-      <c r="F16" s="13">
         <v>26</v>
       </c>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -906,19 +906,19 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1556</v>
-      </c>
-      <c r="F17" s="11">
         <v>2018</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G17" s="11">
-        <v>1446</v>
+        <v>1219</v>
       </c>
       <c r="H17" s="11">
-        <v>1219</v>
+        <v>1618</v>
       </c>
       <c r="I17" s="11">
-        <v>1618</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -930,19 +930,19 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
         <v>52</v>
       </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="13">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="H18" s="13">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I18" s="13">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -954,19 +954,19 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>340</v>
-      </c>
-      <c r="F19" s="11">
         <v>302</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="11">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="H19" s="11">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="I19" s="11">
-        <v>451</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -976,19 +976,19 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>10544</v>
+        <v>11375</v>
       </c>
       <c r="F20" s="15">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>11318</v>
+        <v>8809</v>
       </c>
       <c r="H20" s="15">
-        <v>8809</v>
+        <v>10837</v>
       </c>
       <c r="I20" s="15">
-        <v>10837</v>
+        <v>11414</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1068,19 +1068,19 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19">
-        <v>0</v>
+      <c r="E26" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="19">
         <v>0</v>
@@ -1112,19 +1112,19 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>10544</v>
+        <v>11375</v>
       </c>
       <c r="F27" s="15">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="G27" s="15">
-        <v>11318</v>
+        <v>8809</v>
       </c>
       <c r="H27" s="15">
-        <v>8809</v>
+        <v>10837</v>
       </c>
       <c r="I27" s="15">
-        <v>10837</v>
+        <v>11414</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1210,43 +1210,43 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>750421</v>
-      </c>
-      <c r="F34" s="11">
         <v>890434</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G34" s="11">
-        <v>924655</v>
+        <v>1173609</v>
       </c>
       <c r="H34" s="11">
-        <v>1173609</v>
+        <v>1742616</v>
       </c>
       <c r="I34" s="11">
-        <v>1742616</v>
+        <v>1828217</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>48030</v>
-      </c>
-      <c r="F36" s="11">
         <v>49321</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="11">
-        <v>55699</v>
+        <v>156629</v>
       </c>
       <c r="H36" s="11">
-        <v>156629</v>
+        <v>117143</v>
       </c>
       <c r="I36" s="11">
-        <v>117143</v>
+        <v>179178</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1282,19 +1282,19 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>141992</v>
-      </c>
-      <c r="F37" s="13">
         <v>139488</v>
       </c>
+      <c r="F37" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G37" s="13">
-        <v>157166</v>
+        <v>159572</v>
       </c>
       <c r="H37" s="13">
-        <v>159572</v>
+        <v>191130</v>
       </c>
       <c r="I37" s="13">
-        <v>191130</v>
+        <v>202520</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1306,19 +1306,19 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>79766</v>
-      </c>
-      <c r="F38" s="11">
         <v>138254</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G38" s="11">
-        <v>114545</v>
+        <v>120141</v>
       </c>
       <c r="H38" s="11">
-        <v>120141</v>
+        <v>203130</v>
       </c>
       <c r="I38" s="11">
-        <v>203130</v>
+        <v>252653</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1330,19 +1330,19 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>7150</v>
-      </c>
-      <c r="F39" s="13">
         <v>11918</v>
       </c>
+      <c r="F39" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G39" s="13">
-        <v>7613</v>
+        <v>11811</v>
       </c>
       <c r="H39" s="13">
-        <v>11811</v>
+        <v>13944</v>
       </c>
       <c r="I39" s="13">
-        <v>13944</v>
+        <v>17166</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1354,19 +1354,19 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>260930</v>
-      </c>
-      <c r="F40" s="11">
         <v>407691</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G40" s="11">
-        <v>292282</v>
+        <v>470195</v>
       </c>
       <c r="H40" s="11">
-        <v>470195</v>
+        <v>749402</v>
       </c>
       <c r="I40" s="11">
-        <v>749402</v>
+        <v>869811</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1378,19 +1378,19 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>71</v>
-      </c>
-      <c r="F41" s="13">
         <v>10003</v>
       </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="13">
-        <v>11209</v>
+        <v>38623</v>
       </c>
       <c r="H41" s="13">
-        <v>38623</v>
+        <v>41881</v>
       </c>
       <c r="I41" s="13">
-        <v>41881</v>
+        <v>66672</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>118398</v>
-      </c>
-      <c r="F42" s="11">
         <v>123630</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="11">
-        <v>111106</v>
+        <v>190150</v>
       </c>
       <c r="H42" s="11">
-        <v>190150</v>
+        <v>295543</v>
       </c>
       <c r="I42" s="11">
-        <v>295543</v>
+        <v>355778</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1424,19 +1424,19 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>1406758</v>
+        <v>1770739</v>
       </c>
       <c r="F43" s="15">
-        <v>1770739</v>
+        <v>0</v>
       </c>
       <c r="G43" s="15">
-        <v>1674275</v>
+        <v>2320730</v>
       </c>
       <c r="H43" s="15">
-        <v>2320730</v>
+        <v>3354789</v>
       </c>
       <c r="I43" s="15">
-        <v>3354789</v>
+        <v>3771995</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1516,19 +1516,19 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -1539,11 +1539,11 @@
         <v>33</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="19">
-        <v>0</v>
+      <c r="E49" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="19">
         <v>0</v>
@@ -1562,19 +1562,19 @@
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>1406758</v>
+        <v>1770739</v>
       </c>
       <c r="F50" s="15">
-        <v>1770739</v>
+        <v>0</v>
       </c>
       <c r="G50" s="15">
-        <v>1674275</v>
+        <v>2320730</v>
       </c>
       <c r="H50" s="15">
-        <v>2320730</v>
+        <v>3354789</v>
       </c>
       <c r="I50" s="15">
-        <v>3354789</v>
+        <v>3771995</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -1660,43 +1660,43 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>260111265</v>
+        <v>290706497</v>
       </c>
       <c r="F57" s="11">
-        <v>290706497</v>
+        <v>299241100</v>
       </c>
       <c r="G57" s="11">
-        <v>299241100</v>
+        <v>451561755</v>
       </c>
       <c r="H57" s="11">
-        <v>451561755</v>
+        <v>531447393</v>
       </c>
       <c r="I57" s="11">
-        <v>531447393</v>
+        <v>565486236</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -1708,19 +1708,19 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>237772277</v>
+        <v>270994505</v>
       </c>
       <c r="F59" s="11">
-        <v>270994505</v>
+        <v>277109453</v>
       </c>
       <c r="G59" s="11">
-        <v>277109453</v>
+        <v>529152027</v>
       </c>
       <c r="H59" s="11">
-        <v>529152027</v>
+        <v>610119792</v>
       </c>
       <c r="I59" s="11">
-        <v>610119792</v>
+        <v>595275748</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -1732,19 +1732,19 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>28000789</v>
+        <v>27998394</v>
       </c>
       <c r="F60" s="13">
-        <v>27998394</v>
+        <v>28000356</v>
       </c>
       <c r="G60" s="13">
-        <v>28000356</v>
+        <v>41000000</v>
       </c>
       <c r="H60" s="13">
-        <v>41000000</v>
+        <v>41006222</v>
       </c>
       <c r="I60" s="13">
-        <v>41006222</v>
+        <v>41004252</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -1756,19 +1756,19 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>168282700</v>
+        <v>184338667</v>
       </c>
       <c r="F61" s="11">
-        <v>184338667</v>
+        <v>185048465</v>
       </c>
       <c r="G61" s="11">
-        <v>185048465</v>
+        <v>329153425</v>
       </c>
       <c r="H61" s="11">
-        <v>329153425</v>
+        <v>393662791</v>
       </c>
       <c r="I61" s="11">
-        <v>393662791</v>
+        <v>444811620</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -1780,19 +1780,19 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>476666667</v>
+        <v>458384615</v>
       </c>
       <c r="F62" s="13">
-        <v>458384615</v>
+        <v>543785714</v>
       </c>
       <c r="G62" s="13">
-        <v>543785714</v>
+        <v>738187500</v>
       </c>
       <c r="H62" s="13">
-        <v>738187500</v>
+        <v>820235294</v>
       </c>
       <c r="I62" s="13">
-        <v>820235294</v>
+        <v>858300000</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -1804,19 +1804,19 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>167692802</v>
+        <v>202027255</v>
       </c>
       <c r="F63" s="11">
-        <v>202027255</v>
+        <v>202131397</v>
       </c>
       <c r="G63" s="11">
-        <v>202131397</v>
+        <v>385721903</v>
       </c>
       <c r="H63" s="11">
-        <v>385721903</v>
+        <v>463165637</v>
       </c>
       <c r="I63" s="11">
-        <v>463165637</v>
+        <v>521469424</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -1828,19 +1828,19 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>71000000</v>
+        <v>192365385</v>
       </c>
       <c r="F64" s="13">
-        <v>192365385</v>
+        <v>196649123</v>
       </c>
       <c r="G64" s="13">
-        <v>196649123</v>
+        <v>406557895</v>
       </c>
       <c r="H64" s="13">
-        <v>406557895</v>
+        <v>406611650</v>
       </c>
       <c r="I64" s="13">
-        <v>406611650</v>
+        <v>411555556</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -1852,19 +1852,19 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>348229412</v>
+        <v>409370861</v>
       </c>
       <c r="F65" s="11">
-        <v>409370861</v>
+        <v>399661871</v>
       </c>
       <c r="G65" s="11">
-        <v>399661871</v>
+        <v>581498471</v>
       </c>
       <c r="H65" s="11">
-        <v>581498471</v>
+        <v>655305987</v>
       </c>
       <c r="I65" s="11">
-        <v>655305987</v>
+        <v>680263862</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -1950,43 +1950,43 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-566223</v>
+        <v>-704266</v>
       </c>
       <c r="F72" s="11">
-        <v>-704266</v>
+        <v>-717222</v>
       </c>
       <c r="G72" s="11">
-        <v>-717222</v>
+        <v>-793962</v>
       </c>
       <c r="H72" s="11">
-        <v>-793962</v>
+        <v>-1098921</v>
       </c>
       <c r="I72" s="11">
-        <v>-1098921</v>
+        <v>-1225033</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -1998,19 +1998,19 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>-42208</v>
+        <v>-46104</v>
       </c>
       <c r="F74" s="11">
-        <v>-46104</v>
+        <v>-42761</v>
       </c>
       <c r="G74" s="11">
-        <v>-42761</v>
+        <v>-100063</v>
       </c>
       <c r="H74" s="11">
-        <v>-100063</v>
+        <v>-53723</v>
       </c>
       <c r="I74" s="11">
-        <v>-53723</v>
+        <v>-106479</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -2022,19 +2022,19 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>-102882</v>
+        <v>-114177</v>
       </c>
       <c r="F75" s="13">
-        <v>-114177</v>
+        <v>-140717</v>
       </c>
       <c r="G75" s="13">
-        <v>-140717</v>
+        <v>-148909</v>
       </c>
       <c r="H75" s="13">
-        <v>-148909</v>
+        <v>-173469</v>
       </c>
       <c r="I75" s="13">
-        <v>-173469</v>
+        <v>-173260</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-110180</v>
+        <v>-118507</v>
       </c>
       <c r="F76" s="11">
-        <v>-118507</v>
+        <v>-100246</v>
       </c>
       <c r="G76" s="11">
-        <v>-100246</v>
+        <v>-87393</v>
       </c>
       <c r="H76" s="11">
-        <v>-87393</v>
+        <v>-145187</v>
       </c>
       <c r="I76" s="11">
-        <v>-145187</v>
+        <v>-160829</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -2070,19 +2070,19 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-4145</v>
+        <v>-7033</v>
       </c>
       <c r="F77" s="13">
-        <v>-7033</v>
+        <v>-8501</v>
       </c>
       <c r="G77" s="13">
-        <v>-8501</v>
+        <v>-7395</v>
       </c>
       <c r="H77" s="13">
-        <v>-7395</v>
+        <v>-9273</v>
       </c>
       <c r="I77" s="13">
-        <v>-9273</v>
+        <v>-12159</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -2094,19 +2094,19 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>-378514</v>
+        <v>-321882</v>
       </c>
       <c r="F78" s="11">
-        <v>-321882</v>
+        <v>-244550</v>
       </c>
       <c r="G78" s="11">
-        <v>-244550</v>
+        <v>-333223</v>
       </c>
       <c r="H78" s="11">
-        <v>-333223</v>
+        <v>-459339</v>
       </c>
       <c r="I78" s="11">
-        <v>-459339</v>
+        <v>-543679</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -2118,19 +2118,19 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>-1144</v>
+        <v>-5543</v>
       </c>
       <c r="F79" s="13">
-        <v>-5543</v>
+        <v>-12804</v>
       </c>
       <c r="G79" s="13">
-        <v>-12804</v>
+        <v>-26041</v>
       </c>
       <c r="H79" s="13">
-        <v>-26041</v>
+        <v>-32020</v>
       </c>
       <c r="I79" s="13">
-        <v>-32020</v>
+        <v>-58574</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -2142,19 +2142,19 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>-129459</v>
+        <v>-83125</v>
       </c>
       <c r="F80" s="11">
-        <v>-83125</v>
+        <v>-91325</v>
       </c>
       <c r="G80" s="11">
-        <v>-91325</v>
+        <v>-119978</v>
       </c>
       <c r="H80" s="11">
-        <v>-119978</v>
+        <v>-164918</v>
       </c>
       <c r="I80" s="11">
-        <v>-164918</v>
+        <v>-214792</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -2164,19 +2164,19 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>-1334755</v>
+        <v>-1400637</v>
       </c>
       <c r="F81" s="15">
-        <v>-1400637</v>
+        <v>-1358126</v>
       </c>
       <c r="G81" s="15">
-        <v>-1358126</v>
+        <v>-1616964</v>
       </c>
       <c r="H81" s="15">
-        <v>-1616964</v>
+        <v>-2136850</v>
       </c>
       <c r="I81" s="15">
-        <v>-2136850</v>
+        <v>-2494805</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -2256,19 +2256,19 @@
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -2279,11 +2279,11 @@
         <v>33</v>
       </c>
       <c r="D87" s="19"/>
-      <c r="E87" s="19">
-        <v>0</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>14</v>
+      <c r="E87" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0</v>
       </c>
       <c r="G87" s="19">
         <v>0</v>
@@ -2302,19 +2302,19 @@
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>-1334755</v>
+        <v>-1400637</v>
       </c>
       <c r="F88" s="15">
-        <v>-1400637</v>
+        <v>-1358126</v>
       </c>
       <c r="G88" s="15">
-        <v>-1358126</v>
+        <v>-1616964</v>
       </c>
       <c r="H88" s="15">
-        <v>-1616964</v>
+        <v>-2136850</v>
       </c>
       <c r="I88" s="15">
-        <v>-2136850</v>
+        <v>-2494805</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -2400,43 +2400,43 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>184198</v>
+        <v>186168</v>
       </c>
       <c r="F95" s="11">
-        <v>186168</v>
+        <v>207433</v>
       </c>
       <c r="G95" s="11">
-        <v>207433</v>
+        <v>379647</v>
       </c>
       <c r="H95" s="11">
-        <v>379647</v>
+        <v>643695</v>
       </c>
       <c r="I95" s="11">
-        <v>643695</v>
+        <v>603184</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2448,19 +2448,19 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>5822</v>
+        <v>3217</v>
       </c>
       <c r="F97" s="11">
-        <v>3217</v>
+        <v>12938</v>
       </c>
       <c r="G97" s="11">
-        <v>12938</v>
+        <v>56566</v>
       </c>
       <c r="H97" s="11">
-        <v>56566</v>
+        <v>63420</v>
       </c>
       <c r="I97" s="11">
-        <v>63420</v>
+        <v>72699</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -2472,19 +2472,19 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>39110</v>
+        <v>25311</v>
       </c>
       <c r="F98" s="13">
-        <v>25311</v>
+        <v>16449</v>
       </c>
       <c r="G98" s="13">
-        <v>16449</v>
+        <v>10663</v>
       </c>
       <c r="H98" s="13">
-        <v>10663</v>
+        <v>17661</v>
       </c>
       <c r="I98" s="13">
-        <v>17661</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -2496,19 +2496,19 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>28582</v>
+        <v>19747</v>
       </c>
       <c r="F99" s="11">
-        <v>19747</v>
+        <v>14299</v>
       </c>
       <c r="G99" s="11">
-        <v>14299</v>
+        <v>32748</v>
       </c>
       <c r="H99" s="11">
-        <v>32748</v>
+        <v>57943</v>
       </c>
       <c r="I99" s="11">
-        <v>57943</v>
+        <v>91824</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -2520,19 +2520,19 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>3005</v>
+        <v>4885</v>
       </c>
       <c r="F100" s="13">
-        <v>4885</v>
+        <v>-888</v>
       </c>
       <c r="G100" s="13">
-        <v>-888</v>
+        <v>4416</v>
       </c>
       <c r="H100" s="13">
-        <v>4416</v>
+        <v>4671</v>
       </c>
       <c r="I100" s="13">
-        <v>4671</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -2544,19 +2544,19 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>96348</v>
+        <v>85809</v>
       </c>
       <c r="F101" s="11">
-        <v>85809</v>
+        <v>47732</v>
       </c>
       <c r="G101" s="11">
-        <v>47732</v>
+        <v>136972</v>
       </c>
       <c r="H101" s="11">
-        <v>136972</v>
+        <v>290063</v>
       </c>
       <c r="I101" s="11">
-        <v>290063</v>
+        <v>326132</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -2568,19 +2568,19 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
-        <v>313</v>
+        <v>4460</v>
       </c>
       <c r="F102" s="13">
-        <v>4460</v>
+        <v>-1595</v>
       </c>
       <c r="G102" s="13">
-        <v>-1595</v>
+        <v>12582</v>
       </c>
       <c r="H102" s="13">
-        <v>12582</v>
+        <v>9861</v>
       </c>
       <c r="I102" s="13">
-        <v>9861</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2592,19 +2592,19 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>44507</v>
+        <v>40505</v>
       </c>
       <c r="F103" s="11">
-        <v>40505</v>
+        <v>19781</v>
       </c>
       <c r="G103" s="11">
-        <v>19781</v>
+        <v>70172</v>
       </c>
       <c r="H103" s="11">
-        <v>70172</v>
+        <v>130625</v>
       </c>
       <c r="I103" s="11">
-        <v>130625</v>
+        <v>140986</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -2614,19 +2614,19 @@
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>401885</v>
+        <v>370102</v>
       </c>
       <c r="F104" s="15">
-        <v>370102</v>
+        <v>316149</v>
       </c>
       <c r="G104" s="15">
-        <v>316149</v>
+        <v>703766</v>
       </c>
       <c r="H104" s="15">
-        <v>703766</v>
+        <v>1217939</v>
       </c>
       <c r="I104" s="15">
-        <v>1217939</v>
+        <v>1277190</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -2704,19 +2704,19 @@
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>401885</v>
+        <v>370102</v>
       </c>
       <c r="F109" s="15">
-        <v>370102</v>
+        <v>316149</v>
       </c>
       <c r="G109" s="15">
-        <v>316149</v>
+        <v>703766</v>
       </c>
       <c r="H109" s="15">
-        <v>703766</v>
+        <v>1217939</v>
       </c>
       <c r="I109" s="15">
-        <v>1217939</v>
+        <v>1277190</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghesalem/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/ghesalem/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCC353-94C9-475F-A484-9CC6572C414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غسالم-سالمین‌</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,10 +61,10 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>انواع بیسکویت</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>ویفان</t>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -388,7 +389,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -435,6 +436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,6 +488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,17 +656,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,7 +676,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +688,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -665,7 +700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -675,7 +710,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -687,7 +722,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +734,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -709,7 +744,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -731,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -741,7 +776,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -753,7 +788,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -762,46 +797,46 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2885</v>
-      </c>
-      <c r="F11" s="11">
         <v>3063</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>3090</v>
+        <v>2599</v>
       </c>
       <c r="H11" s="11">
-        <v>2599</v>
+        <v>3279</v>
       </c>
       <c r="I11" s="11">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -810,22 +845,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>202</v>
-      </c>
-      <c r="F13" s="11">
         <v>182</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="H13" s="11">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="I13" s="11">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -834,22 +869,22 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>5071</v>
-      </c>
-      <c r="F14" s="13">
         <v>4982</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="13">
-        <v>5613</v>
+        <v>3892</v>
       </c>
       <c r="H14" s="13">
-        <v>3892</v>
+        <v>4661</v>
       </c>
       <c r="I14" s="13">
-        <v>4661</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -858,22 +893,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>474</v>
-      </c>
-      <c r="F15" s="11">
         <v>750</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="11">
-        <v>619</v>
+        <v>365</v>
       </c>
       <c r="H15" s="11">
-        <v>365</v>
+        <v>516</v>
       </c>
       <c r="I15" s="11">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -882,22 +917,22 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>15</v>
-      </c>
-      <c r="F16" s="13">
         <v>26</v>
       </c>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -906,22 +941,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1556</v>
-      </c>
-      <c r="F17" s="11">
         <v>2018</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G17" s="11">
-        <v>1446</v>
+        <v>1219</v>
       </c>
       <c r="H17" s="11">
-        <v>1219</v>
+        <v>1618</v>
       </c>
       <c r="I17" s="11">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -930,22 +965,22 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
         <v>52</v>
       </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="13">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="H18" s="13">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I18" s="13">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -954,44 +989,44 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>340</v>
-      </c>
-      <c r="F19" s="11">
         <v>302</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="11">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="H19" s="11">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="I19" s="11">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>10544</v>
+        <v>11375</v>
       </c>
       <c r="F20" s="15">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>11318</v>
+        <v>8809</v>
       </c>
       <c r="H20" s="15">
-        <v>8809</v>
+        <v>10837</v>
       </c>
       <c r="I20" s="15">
-        <v>10837</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11414</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1038,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
@@ -1025,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
@@ -1037,7 +1072,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
@@ -1068,32 +1103,32 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19">
-        <v>0</v>
+      <c r="E26" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="19">
         <v>0</v>
@@ -1105,29 +1140,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>10544</v>
+        <v>11375</v>
       </c>
       <c r="F27" s="15">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="G27" s="15">
-        <v>11318</v>
+        <v>8809</v>
       </c>
       <c r="H27" s="15">
-        <v>8809</v>
+        <v>10837</v>
       </c>
       <c r="I27" s="15">
-        <v>10837</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11414</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1137,7 +1172,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1147,7 +1182,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1157,7 +1192,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1189,7 +1224,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1236,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1210,46 +1245,46 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>750421</v>
-      </c>
-      <c r="F34" s="11">
         <v>890434</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G34" s="11">
-        <v>924655</v>
+        <v>1173609</v>
       </c>
       <c r="H34" s="11">
-        <v>1173609</v>
+        <v>1742616</v>
       </c>
       <c r="I34" s="11">
-        <v>1742616</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1828217</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1258,22 +1293,22 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>48030</v>
-      </c>
-      <c r="F36" s="11">
         <v>49321</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="11">
-        <v>55699</v>
+        <v>156629</v>
       </c>
       <c r="H36" s="11">
-        <v>156629</v>
+        <v>117143</v>
       </c>
       <c r="I36" s="11">
-        <v>117143</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>179178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>16</v>
       </c>
@@ -1282,22 +1317,22 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>141992</v>
-      </c>
-      <c r="F37" s="13">
         <v>139488</v>
       </c>
+      <c r="F37" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G37" s="13">
-        <v>157166</v>
+        <v>159572</v>
       </c>
       <c r="H37" s="13">
-        <v>159572</v>
+        <v>191130</v>
       </c>
       <c r="I37" s="13">
-        <v>191130</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>202520</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1306,22 +1341,22 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>79766</v>
-      </c>
-      <c r="F38" s="11">
         <v>138254</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G38" s="11">
-        <v>114545</v>
+        <v>120141</v>
       </c>
       <c r="H38" s="11">
-        <v>120141</v>
+        <v>203130</v>
       </c>
       <c r="I38" s="11">
-        <v>203130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>252653</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>18</v>
       </c>
@@ -1330,22 +1365,22 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>7150</v>
-      </c>
-      <c r="F39" s="13">
         <v>11918</v>
       </c>
+      <c r="F39" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G39" s="13">
-        <v>7613</v>
+        <v>11811</v>
       </c>
       <c r="H39" s="13">
-        <v>11811</v>
+        <v>13944</v>
       </c>
       <c r="I39" s="13">
-        <v>13944</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17166</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1354,22 +1389,22 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>260930</v>
-      </c>
-      <c r="F40" s="11">
         <v>407691</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G40" s="11">
-        <v>292282</v>
+        <v>470195</v>
       </c>
       <c r="H40" s="11">
-        <v>470195</v>
+        <v>749402</v>
       </c>
       <c r="I40" s="11">
-        <v>749402</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>869811</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>20</v>
       </c>
@@ -1378,22 +1413,22 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>71</v>
-      </c>
-      <c r="F41" s="13">
         <v>10003</v>
       </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="13">
-        <v>11209</v>
+        <v>38623</v>
       </c>
       <c r="H41" s="13">
-        <v>38623</v>
+        <v>41881</v>
       </c>
       <c r="I41" s="13">
-        <v>41881</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66672</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1402,44 +1437,44 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>118398</v>
-      </c>
-      <c r="F42" s="11">
         <v>123630</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="11">
-        <v>111106</v>
+        <v>190150</v>
       </c>
       <c r="H42" s="11">
-        <v>190150</v>
+        <v>295543</v>
       </c>
       <c r="I42" s="11">
-        <v>295543</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>355778</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>1406758</v>
+        <v>1770739</v>
       </c>
       <c r="F43" s="15">
-        <v>1770739</v>
+        <v>0</v>
       </c>
       <c r="G43" s="15">
-        <v>1674275</v>
+        <v>2320730</v>
       </c>
       <c r="H43" s="15">
-        <v>2320730</v>
+        <v>3354789</v>
       </c>
       <c r="I43" s="15">
-        <v>3354789</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3771995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1486,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>24</v>
       </c>
@@ -1473,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1520,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>27</v>
       </c>
@@ -1516,22 +1551,22 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>29</v>
       </c>
@@ -1539,11 +1574,11 @@
         <v>33</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="19">
-        <v>0</v>
+      <c r="E49" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="19">
         <v>0</v>
@@ -1555,29 +1590,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>1406758</v>
+        <v>1770739</v>
       </c>
       <c r="F50" s="15">
-        <v>1770739</v>
+        <v>0</v>
       </c>
       <c r="G50" s="15">
-        <v>1674275</v>
+        <v>2320730</v>
       </c>
       <c r="H50" s="15">
-        <v>2320730</v>
+        <v>3354789</v>
       </c>
       <c r="I50" s="15">
-        <v>3354789</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3771995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1587,7 +1622,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1597,7 +1632,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1607,7 +1642,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1639,7 +1674,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1686,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1660,46 +1695,46 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>260111265</v>
+        <v>290706497</v>
       </c>
       <c r="F57" s="11">
-        <v>290706497</v>
+        <v>299241100</v>
       </c>
       <c r="G57" s="11">
-        <v>299241100</v>
+        <v>451561755</v>
       </c>
       <c r="H57" s="11">
-        <v>451561755</v>
+        <v>531447393</v>
       </c>
       <c r="I57" s="11">
-        <v>531447393</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>565486236</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
@@ -1708,22 +1743,22 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>237772277</v>
+        <v>270994505</v>
       </c>
       <c r="F59" s="11">
-        <v>270994505</v>
+        <v>277109453</v>
       </c>
       <c r="G59" s="11">
-        <v>277109453</v>
+        <v>529152027</v>
       </c>
       <c r="H59" s="11">
-        <v>529152027</v>
+        <v>610119792</v>
       </c>
       <c r="I59" s="11">
-        <v>610119792</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>595275748</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -1732,22 +1767,22 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>28000789</v>
+        <v>27998394</v>
       </c>
       <c r="F60" s="13">
-        <v>27998394</v>
+        <v>28000356</v>
       </c>
       <c r="G60" s="13">
-        <v>28000356</v>
+        <v>41000000</v>
       </c>
       <c r="H60" s="13">
-        <v>41000000</v>
+        <v>41006222</v>
       </c>
       <c r="I60" s="13">
-        <v>41006222</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41004252</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>17</v>
       </c>
@@ -1756,22 +1791,22 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>168282700</v>
+        <v>184338667</v>
       </c>
       <c r="F61" s="11">
-        <v>184338667</v>
+        <v>185048465</v>
       </c>
       <c r="G61" s="11">
-        <v>185048465</v>
+        <v>329153425</v>
       </c>
       <c r="H61" s="11">
-        <v>329153425</v>
+        <v>393662791</v>
       </c>
       <c r="I61" s="11">
-        <v>393662791</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>444811620</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>18</v>
       </c>
@@ -1780,22 +1815,22 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>476666667</v>
+        <v>458384615</v>
       </c>
       <c r="F62" s="13">
-        <v>458384615</v>
+        <v>543785714</v>
       </c>
       <c r="G62" s="13">
-        <v>543785714</v>
+        <v>738187500</v>
       </c>
       <c r="H62" s="13">
-        <v>738187500</v>
+        <v>820235294</v>
       </c>
       <c r="I62" s="13">
-        <v>820235294</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>858300000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
@@ -1804,22 +1839,22 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>167692802</v>
+        <v>202027255</v>
       </c>
       <c r="F63" s="11">
-        <v>202027255</v>
+        <v>202131397</v>
       </c>
       <c r="G63" s="11">
-        <v>202131397</v>
+        <v>385721903</v>
       </c>
       <c r="H63" s="11">
-        <v>385721903</v>
+        <v>463165637</v>
       </c>
       <c r="I63" s="11">
-        <v>463165637</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>521469424</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>20</v>
       </c>
@@ -1828,22 +1863,22 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>71000000</v>
+        <v>192365385</v>
       </c>
       <c r="F64" s="13">
-        <v>192365385</v>
+        <v>196649123</v>
       </c>
       <c r="G64" s="13">
-        <v>196649123</v>
+        <v>406557895</v>
       </c>
       <c r="H64" s="13">
-        <v>406557895</v>
+        <v>406611650</v>
       </c>
       <c r="I64" s="13">
-        <v>406611650</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>411555556</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -1852,22 +1887,22 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>348229412</v>
+        <v>409370861</v>
       </c>
       <c r="F65" s="11">
-        <v>409370861</v>
+        <v>399661871</v>
       </c>
       <c r="G65" s="11">
-        <v>399661871</v>
+        <v>581498471</v>
       </c>
       <c r="H65" s="11">
-        <v>581498471</v>
+        <v>655305987</v>
       </c>
       <c r="I65" s="11">
-        <v>655305987</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>680263862</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1877,7 +1912,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1887,7 +1922,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1897,7 +1932,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>39</v>
       </c>
@@ -1919,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1929,7 +1964,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>40</v>
       </c>
@@ -1941,7 +1976,7 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>11</v>
       </c>
@@ -1950,46 +1985,46 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-566223</v>
+        <v>-704266</v>
       </c>
       <c r="F72" s="11">
-        <v>-704266</v>
+        <v>-717222</v>
       </c>
       <c r="G72" s="11">
-        <v>-717222</v>
+        <v>-793962</v>
       </c>
       <c r="H72" s="11">
-        <v>-793962</v>
+        <v>-1098921</v>
       </c>
       <c r="I72" s="11">
-        <v>-1098921</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1225033</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>15</v>
       </c>
@@ -1998,22 +2033,22 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>-42208</v>
+        <v>-46104</v>
       </c>
       <c r="F74" s="11">
-        <v>-46104</v>
+        <v>-42761</v>
       </c>
       <c r="G74" s="11">
-        <v>-42761</v>
+        <v>-100063</v>
       </c>
       <c r="H74" s="11">
-        <v>-100063</v>
+        <v>-53723</v>
       </c>
       <c r="I74" s="11">
-        <v>-53723</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-106479</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
@@ -2022,22 +2057,22 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>-102882</v>
+        <v>-114177</v>
       </c>
       <c r="F75" s="13">
-        <v>-114177</v>
+        <v>-140717</v>
       </c>
       <c r="G75" s="13">
-        <v>-140717</v>
+        <v>-148909</v>
       </c>
       <c r="H75" s="13">
-        <v>-148909</v>
+        <v>-173469</v>
       </c>
       <c r="I75" s="13">
-        <v>-173469</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-173260</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>17</v>
       </c>
@@ -2046,22 +2081,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-110180</v>
+        <v>-118507</v>
       </c>
       <c r="F76" s="11">
-        <v>-118507</v>
+        <v>-100246</v>
       </c>
       <c r="G76" s="11">
-        <v>-100246</v>
+        <v>-87393</v>
       </c>
       <c r="H76" s="11">
-        <v>-87393</v>
+        <v>-145187</v>
       </c>
       <c r="I76" s="11">
-        <v>-145187</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-160829</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>18</v>
       </c>
@@ -2070,22 +2105,22 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-4145</v>
+        <v>-7033</v>
       </c>
       <c r="F77" s="13">
-        <v>-7033</v>
+        <v>-8501</v>
       </c>
       <c r="G77" s="13">
-        <v>-8501</v>
+        <v>-7395</v>
       </c>
       <c r="H77" s="13">
-        <v>-7395</v>
+        <v>-9273</v>
       </c>
       <c r="I77" s="13">
-        <v>-9273</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-12159</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -2094,22 +2129,22 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>-378514</v>
+        <v>-321882</v>
       </c>
       <c r="F78" s="11">
-        <v>-321882</v>
+        <v>-244550</v>
       </c>
       <c r="G78" s="11">
-        <v>-244550</v>
+        <v>-333223</v>
       </c>
       <c r="H78" s="11">
-        <v>-333223</v>
+        <v>-459339</v>
       </c>
       <c r="I78" s="11">
-        <v>-459339</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-543679</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>20</v>
       </c>
@@ -2118,22 +2153,22 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>-1144</v>
+        <v>-5543</v>
       </c>
       <c r="F79" s="13">
-        <v>-5543</v>
+        <v>-12804</v>
       </c>
       <c r="G79" s="13">
-        <v>-12804</v>
+        <v>-26041</v>
       </c>
       <c r="H79" s="13">
-        <v>-26041</v>
+        <v>-32020</v>
       </c>
       <c r="I79" s="13">
-        <v>-32020</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-58574</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -2142,44 +2177,44 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>-129459</v>
+        <v>-83125</v>
       </c>
       <c r="F80" s="11">
-        <v>-83125</v>
+        <v>-91325</v>
       </c>
       <c r="G80" s="11">
-        <v>-91325</v>
+        <v>-119978</v>
       </c>
       <c r="H80" s="11">
-        <v>-119978</v>
+        <v>-164918</v>
       </c>
       <c r="I80" s="11">
-        <v>-164918</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-214792</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>-1334755</v>
+        <v>-1400637</v>
       </c>
       <c r="F81" s="15">
-        <v>-1400637</v>
+        <v>-1358126</v>
       </c>
       <c r="G81" s="15">
-        <v>-1358126</v>
+        <v>-1616964</v>
       </c>
       <c r="H81" s="15">
-        <v>-1616964</v>
+        <v>-2136850</v>
       </c>
       <c r="I81" s="15">
-        <v>-2136850</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2494805</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>42</v>
       </c>
@@ -2191,7 +2226,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>43</v>
       </c>
@@ -2213,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>44</v>
       </c>
@@ -2225,7 +2260,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>45</v>
       </c>
@@ -2247,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>27</v>
       </c>
@@ -2256,22 +2291,22 @@
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="18" t="s">
         <v>29</v>
       </c>
@@ -2279,11 +2314,11 @@
         <v>33</v>
       </c>
       <c r="D87" s="19"/>
-      <c r="E87" s="19">
-        <v>0</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>14</v>
+      <c r="E87" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0</v>
       </c>
       <c r="G87" s="19">
         <v>0</v>
@@ -2295,29 +2330,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>-1334755</v>
+        <v>-1400637</v>
       </c>
       <c r="F88" s="15">
-        <v>-1400637</v>
+        <v>-1358126</v>
       </c>
       <c r="G88" s="15">
-        <v>-1358126</v>
+        <v>-1616964</v>
       </c>
       <c r="H88" s="15">
-        <v>-1616964</v>
+        <v>-2136850</v>
       </c>
       <c r="I88" s="15">
-        <v>-2136850</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2494805</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2327,7 +2362,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2337,7 +2372,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2347,7 +2382,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>46</v>
       </c>
@@ -2369,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2379,7 +2414,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>47</v>
       </c>
@@ -2391,7 +2426,7 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>11</v>
       </c>
@@ -2400,46 +2435,46 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>184198</v>
+        <v>186168</v>
       </c>
       <c r="F95" s="11">
-        <v>186168</v>
+        <v>207433</v>
       </c>
       <c r="G95" s="11">
-        <v>207433</v>
+        <v>379647</v>
       </c>
       <c r="H95" s="11">
-        <v>379647</v>
+        <v>643695</v>
       </c>
       <c r="I95" s="11">
-        <v>643695</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>603184</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>15</v>
       </c>
@@ -2448,22 +2483,22 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>5822</v>
+        <v>3217</v>
       </c>
       <c r="F97" s="11">
-        <v>3217</v>
+        <v>12938</v>
       </c>
       <c r="G97" s="11">
-        <v>12938</v>
+        <v>56566</v>
       </c>
       <c r="H97" s="11">
-        <v>56566</v>
+        <v>63420</v>
       </c>
       <c r="I97" s="11">
-        <v>63420</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72699</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>16</v>
       </c>
@@ -2472,22 +2507,22 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>39110</v>
+        <v>25311</v>
       </c>
       <c r="F98" s="13">
-        <v>25311</v>
+        <v>16449</v>
       </c>
       <c r="G98" s="13">
-        <v>16449</v>
+        <v>10663</v>
       </c>
       <c r="H98" s="13">
-        <v>10663</v>
+        <v>17661</v>
       </c>
       <c r="I98" s="13">
-        <v>17661</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29260</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>17</v>
       </c>
@@ -2496,22 +2531,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>28582</v>
+        <v>19747</v>
       </c>
       <c r="F99" s="11">
-        <v>19747</v>
+        <v>14299</v>
       </c>
       <c r="G99" s="11">
-        <v>14299</v>
+        <v>32748</v>
       </c>
       <c r="H99" s="11">
-        <v>32748</v>
+        <v>57943</v>
       </c>
       <c r="I99" s="11">
-        <v>57943</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>91824</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
@@ -2520,22 +2555,22 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>3005</v>
+        <v>4885</v>
       </c>
       <c r="F100" s="13">
-        <v>4885</v>
+        <v>-888</v>
       </c>
       <c r="G100" s="13">
-        <v>-888</v>
+        <v>4416</v>
       </c>
       <c r="H100" s="13">
-        <v>4416</v>
+        <v>4671</v>
       </c>
       <c r="I100" s="13">
-        <v>4671</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>19</v>
       </c>
@@ -2544,22 +2579,22 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>96348</v>
+        <v>85809</v>
       </c>
       <c r="F101" s="11">
-        <v>85809</v>
+        <v>47732</v>
       </c>
       <c r="G101" s="11">
-        <v>47732</v>
+        <v>136972</v>
       </c>
       <c r="H101" s="11">
-        <v>136972</v>
+        <v>290063</v>
       </c>
       <c r="I101" s="11">
-        <v>290063</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>326132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>20</v>
       </c>
@@ -2568,22 +2603,22 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
-        <v>313</v>
+        <v>4460</v>
       </c>
       <c r="F102" s="13">
-        <v>4460</v>
+        <v>-1595</v>
       </c>
       <c r="G102" s="13">
-        <v>-1595</v>
+        <v>12582</v>
       </c>
       <c r="H102" s="13">
-        <v>12582</v>
+        <v>9861</v>
       </c>
       <c r="I102" s="13">
-        <v>9861</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8098</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>21</v>
       </c>
@@ -2592,44 +2627,44 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>44507</v>
+        <v>40505</v>
       </c>
       <c r="F103" s="11">
-        <v>40505</v>
+        <v>19781</v>
       </c>
       <c r="G103" s="11">
-        <v>19781</v>
+        <v>70172</v>
       </c>
       <c r="H103" s="11">
-        <v>70172</v>
+        <v>130625</v>
       </c>
       <c r="I103" s="11">
-        <v>130625</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>140986</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>401885</v>
+        <v>370102</v>
       </c>
       <c r="F104" s="15">
-        <v>370102</v>
+        <v>316149</v>
       </c>
       <c r="G104" s="15">
-        <v>316149</v>
+        <v>703766</v>
       </c>
       <c r="H104" s="15">
-        <v>703766</v>
+        <v>1217939</v>
       </c>
       <c r="I104" s="15">
-        <v>1217939</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1277190</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>49</v>
       </c>
@@ -2641,7 +2676,7 @@
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>50</v>
       </c>
@@ -2663,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="16" t="s">
         <v>51</v>
       </c>
@@ -2675,7 +2710,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>52</v>
       </c>
@@ -2697,26 +2732,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>401885</v>
+        <v>370102</v>
       </c>
       <c r="F109" s="15">
-        <v>370102</v>
+        <v>316149</v>
       </c>
       <c r="G109" s="15">
-        <v>316149</v>
+        <v>703766</v>
       </c>
       <c r="H109" s="15">
-        <v>703766</v>
+        <v>1217939</v>
       </c>
       <c r="I109" s="15">
-        <v>1217939</v>
+        <v>1277190</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghesalem/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/ghesalem/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghesalem\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCC353-94C9-475F-A484-9CC6572C414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198BF1FA-B4CC-491C-8123-6A2CC9CE2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -657,16 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I109"/>
+  <dimension ref="B1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -675,8 +690,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +707,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,8 +724,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -709,8 +739,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,8 +756,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,8 +773,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -743,8 +788,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -765,8 +815,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -775,10 +840,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -787,248 +857,403 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>2747</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2740</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2810</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2433</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2885</v>
+      </c>
+      <c r="J11" s="11">
         <v>3063</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>2599</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>3279</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>3233</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>2122</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1773</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2994</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1919</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>320</v>
+      </c>
+      <c r="H13" s="11">
+        <v>253</v>
+      </c>
+      <c r="I13" s="11">
+        <v>202</v>
+      </c>
+      <c r="J13" s="11">
         <v>182</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>296</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>192</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>5746</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3754</v>
+      </c>
+      <c r="G14" s="13">
+        <v>4867</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4214</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5071</v>
+      </c>
+      <c r="J14" s="13">
         <v>4982</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>3892</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>4661</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>4939</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11">
+        <v>474</v>
+      </c>
+      <c r="J15" s="11">
         <v>750</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>365</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>516</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>26</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="F16" s="13">
+        <v>19</v>
       </c>
       <c r="G16" s="13">
         <v>16</v>
       </c>
       <c r="H16" s="13">
+        <v>13</v>
+      </c>
+      <c r="I16" s="13">
+        <v>15</v>
+      </c>
+      <c r="J16" s="13">
+        <v>26</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
+        <v>16</v>
+      </c>
+      <c r="M16" s="13">
         <v>17</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1556</v>
+      </c>
+      <c r="J17" s="11">
         <v>2018</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>1219</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>1618</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>1668</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13">
+      <c r="E18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
         <v>52</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>95</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>103</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
+        <v>340</v>
+      </c>
+      <c r="J19" s="11">
         <v>302</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>327</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>451</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
+        <v>10636</v>
+      </c>
+      <c r="F20" s="15">
+        <v>8287</v>
+      </c>
+      <c r="G20" s="15">
+        <v>11007</v>
+      </c>
+      <c r="H20" s="15">
+        <v>8832</v>
+      </c>
+      <c r="I20" s="15">
+        <v>10544</v>
+      </c>
+      <c r="J20" s="15">
         <v>11375</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
         <v>8809</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>10837</v>
       </c>
-      <c r="I20" s="15">
+      <c r="N20" s="15">
         <v>11414</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1037,10 +1262,15 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -1059,10 +1289,25 @@
       <c r="I22" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
+        <v>0</v>
+      </c>
+      <c r="N22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -1071,10 +1316,15 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -1093,76 +1343,136 @@
       <c r="I24" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
+      <c r="N24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>13</v>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
       </c>
       <c r="G26" s="19">
         <v>0</v>
       </c>
-      <c r="H26" s="19">
-        <v>0</v>
+      <c r="H26" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>10636</v>
+      </c>
+      <c r="F27" s="15">
+        <v>8287</v>
+      </c>
+      <c r="G27" s="15">
+        <v>11007</v>
+      </c>
+      <c r="H27" s="15">
+        <v>8832</v>
+      </c>
+      <c r="I27" s="15">
+        <v>10544</v>
+      </c>
+      <c r="J27" s="15">
         <v>11375</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
         <v>8809</v>
       </c>
-      <c r="H27" s="15">
+      <c r="M27" s="15">
         <v>10837</v>
       </c>
-      <c r="I27" s="15">
+      <c r="N27" s="15">
         <v>11414</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1171,8 +1481,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1181,8 +1496,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1191,10 +1511,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1213,8 +1538,23 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1223,10 +1563,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1235,248 +1580,403 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>447777</v>
+      </c>
+      <c r="F34" s="11">
+        <v>557307</v>
+      </c>
+      <c r="G34" s="11">
+        <v>586362</v>
+      </c>
+      <c r="H34" s="11">
+        <v>597407</v>
+      </c>
+      <c r="I34" s="11">
+        <v>750421</v>
+      </c>
+      <c r="J34" s="11">
         <v>890434</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="11">
         <v>1173609</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>1742616</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>1828217</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>13</v>
+      <c r="E35" s="13">
+        <v>277694</v>
+      </c>
+      <c r="F35" s="13">
+        <v>266678</v>
+      </c>
+      <c r="G35" s="13">
+        <v>488854</v>
+      </c>
+      <c r="H35" s="13">
+        <v>329882</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>139</v>
+      </c>
+      <c r="G36" s="11">
+        <v>59040</v>
+      </c>
+      <c r="H36" s="11">
+        <v>55905</v>
+      </c>
+      <c r="I36" s="11">
+        <v>48030</v>
+      </c>
+      <c r="J36" s="11">
         <v>49321</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11">
         <v>156629</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>117143</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>179178</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>103427</v>
+      </c>
+      <c r="F37" s="13">
+        <v>67569</v>
+      </c>
+      <c r="G37" s="13">
+        <v>87617</v>
+      </c>
+      <c r="H37" s="13">
+        <v>117995</v>
+      </c>
+      <c r="I37" s="13">
+        <v>141992</v>
+      </c>
+      <c r="J37" s="13">
         <v>139488</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="K37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="13">
         <v>159572</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>191130</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>202520</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
+      <c r="E38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="11">
+        <v>79766</v>
+      </c>
+      <c r="J38" s="11">
         <v>138254</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11">
         <v>120141</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>203130</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>252653</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
+        <v>4727</v>
+      </c>
+      <c r="F39" s="13">
+        <v>6549</v>
+      </c>
+      <c r="G39" s="13">
+        <v>5652</v>
+      </c>
+      <c r="H39" s="13">
+        <v>5139</v>
+      </c>
+      <c r="I39" s="13">
+        <v>7150</v>
+      </c>
+      <c r="J39" s="13">
         <v>11918</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="K39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="13">
         <v>11811</v>
       </c>
-      <c r="H39" s="13">
+      <c r="M39" s="13">
         <v>13944</v>
       </c>
-      <c r="I39" s="13">
+      <c r="N39" s="13">
         <v>17166</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11">
+      <c r="E40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11">
+        <v>260930</v>
+      </c>
+      <c r="J40" s="11">
         <v>407691</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11">
         <v>470195</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>749402</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>869811</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13">
+      <c r="E41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="13">
+        <v>71</v>
+      </c>
+      <c r="J41" s="13">
         <v>10003</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="K41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="13">
         <v>38623</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>41881</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>66672</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11">
+      <c r="E42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11">
+        <v>118398</v>
+      </c>
+      <c r="J42" s="11">
         <v>123630</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11">
         <v>190150</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>295543</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>355778</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
+        <v>833625</v>
+      </c>
+      <c r="F43" s="15">
+        <v>898242</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1227525</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1106328</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1406758</v>
+      </c>
+      <c r="J43" s="15">
         <v>1770739</v>
       </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
         <v>2320730</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>3354789</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>3771995</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1485,10 +1985,15 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -1507,10 +2012,25 @@
       <c r="I45" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="19">
+        <v>0</v>
+      </c>
+      <c r="K45" s="19">
+        <v>0</v>
+      </c>
+      <c r="L45" s="19">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19">
+        <v>0</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -1519,10 +2039,15 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -1541,78 +2066,138 @@
       <c r="I47" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19">
+        <v>0</v>
+      </c>
+      <c r="N47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>13</v>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>13</v>
+      <c r="E49" s="19">
+        <v>0</v>
+      </c>
+      <c r="F49" s="19">
+        <v>0</v>
       </c>
       <c r="G49" s="19">
         <v>0</v>
       </c>
-      <c r="H49" s="19">
-        <v>0</v>
+      <c r="H49" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="19">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19">
+        <v>0</v>
+      </c>
+      <c r="N49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
+        <v>833625</v>
+      </c>
+      <c r="F50" s="15">
+        <v>898242</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1227525</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1106328</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1406758</v>
+      </c>
+      <c r="J50" s="15">
         <v>1770739</v>
       </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15">
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
         <v>2320730</v>
       </c>
-      <c r="H50" s="15">
+      <c r="M50" s="15">
         <v>3354789</v>
       </c>
-      <c r="I50" s="15">
+      <c r="N50" s="15">
         <v>3771995</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1621,8 +2206,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1631,8 +2221,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1641,10 +2236,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1663,8 +2263,23 @@
       <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1673,10 +2288,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1685,224 +2305,364 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>163005825</v>
+      </c>
+      <c r="F57" s="11">
+        <v>203396715</v>
+      </c>
+      <c r="G57" s="11">
+        <v>208669751</v>
+      </c>
+      <c r="H57" s="11">
+        <v>245543362</v>
+      </c>
+      <c r="I57" s="11">
+        <v>260111265</v>
+      </c>
+      <c r="J57" s="11">
         <v>290706497</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>299241100</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>451561755</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>531447393</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>565486236</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>13</v>
+      <c r="E58" s="13">
+        <v>130864279</v>
+      </c>
+      <c r="F58" s="13">
+        <v>150410604</v>
+      </c>
+      <c r="G58" s="13">
+        <v>163277889</v>
+      </c>
+      <c r="H58" s="13">
+        <v>171903075</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
+      <c r="E59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="11">
+        <v>139000000</v>
+      </c>
+      <c r="G59" s="11">
+        <v>184500000</v>
+      </c>
+      <c r="H59" s="11">
+        <v>220968379</v>
+      </c>
+      <c r="I59" s="11">
+        <v>237772277</v>
+      </c>
+      <c r="J59" s="11">
         <v>270994505</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>277109453</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>529152027</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>610119792</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>595275748</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>17999826</v>
+      </c>
+      <c r="F60" s="13">
+        <v>17999201</v>
+      </c>
+      <c r="G60" s="13">
+        <v>18002260</v>
+      </c>
+      <c r="H60" s="13">
+        <v>28000712</v>
+      </c>
+      <c r="I60" s="13">
+        <v>28000789</v>
+      </c>
+      <c r="J60" s="13">
         <v>27998394</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>28000356</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>41000000</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>41006222</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>41004252</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
+      <c r="E61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11">
+        <v>168282700</v>
+      </c>
+      <c r="J61" s="11">
         <v>184338667</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>185048465</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>329153425</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>393662791</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>444811620</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>225095238</v>
+      </c>
+      <c r="F62" s="13">
+        <v>344684211</v>
+      </c>
+      <c r="G62" s="13">
+        <v>353250000</v>
+      </c>
+      <c r="H62" s="13">
+        <v>395307692</v>
+      </c>
+      <c r="I62" s="13">
+        <v>476666667</v>
+      </c>
+      <c r="J62" s="13">
         <v>458384615</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>543785714</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>738187500</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>820235294</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>858300000</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
+      <c r="E63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="11">
+        <v>167692802</v>
+      </c>
+      <c r="J63" s="11">
         <v>202027255</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>202131397</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>385721903</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>463165637</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>521469424</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13">
+      <c r="E64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="13">
+        <v>71000000</v>
+      </c>
+      <c r="J64" s="13">
         <v>192365385</v>
       </c>
-      <c r="F64" s="13">
+      <c r="K64" s="13">
         <v>196649123</v>
       </c>
-      <c r="G64" s="13">
+      <c r="L64" s="13">
         <v>406557895</v>
       </c>
-      <c r="H64" s="13">
+      <c r="M64" s="13">
         <v>406611650</v>
       </c>
-      <c r="I64" s="13">
+      <c r="N64" s="13">
         <v>411555556</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
+      <c r="E65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="11">
+        <v>348229412</v>
+      </c>
+      <c r="J65" s="11">
         <v>409370861</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>399661871</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>581498471</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>655305987</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>680263862</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1911,8 +2671,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1921,8 +2686,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1931,10 +2701,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1953,8 +2728,23 @@
       <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1963,10 +2753,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -1975,248 +2770,403 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>-350290</v>
+      </c>
+      <c r="F72" s="11">
+        <v>-426630</v>
+      </c>
+      <c r="G72" s="11">
+        <v>-452719</v>
+      </c>
+      <c r="H72" s="11">
+        <v>-438990</v>
+      </c>
+      <c r="I72" s="11">
+        <v>-566223</v>
+      </c>
+      <c r="J72" s="11">
         <v>-704266</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>-717222</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>-793962</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>-1098921</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>-1225033</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D73" s="13"/>
-      <c r="E73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>13</v>
+      <c r="E73" s="13">
+        <v>-219674</v>
+      </c>
+      <c r="F73" s="13">
+        <v>-220948</v>
+      </c>
+      <c r="G73" s="13">
+        <v>-349716</v>
+      </c>
+      <c r="H73" s="13">
+        <v>-270417</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>-504</v>
+      </c>
+      <c r="F74" s="11">
+        <v>-546</v>
+      </c>
+      <c r="G74" s="11">
+        <v>-46996</v>
+      </c>
+      <c r="H74" s="11">
+        <v>-45886</v>
+      </c>
+      <c r="I74" s="11">
+        <v>-42208</v>
+      </c>
+      <c r="J74" s="11">
         <v>-46104</v>
       </c>
-      <c r="F74" s="11">
+      <c r="K74" s="11">
         <v>-42761</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>-100063</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>-53723</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>-106479</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>-79018</v>
+      </c>
+      <c r="F75" s="13">
+        <v>-65364</v>
+      </c>
+      <c r="G75" s="13">
+        <v>-72670</v>
+      </c>
+      <c r="H75" s="13">
+        <v>-82010</v>
+      </c>
+      <c r="I75" s="13">
+        <v>-102882</v>
+      </c>
+      <c r="J75" s="13">
         <v>-114177</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>-140717</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>-148909</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>-173469</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>-173260</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
+      <c r="E76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11">
+        <v>-110180</v>
+      </c>
+      <c r="J76" s="11">
         <v>-118507</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>-100246</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>-87393</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>-145187</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>-160829</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>-3964</v>
+      </c>
+      <c r="F77" s="13">
+        <v>-3692</v>
+      </c>
+      <c r="G77" s="13">
+        <v>-3866</v>
+      </c>
+      <c r="H77" s="13">
+        <v>-3088</v>
+      </c>
+      <c r="I77" s="13">
+        <v>-4145</v>
+      </c>
+      <c r="J77" s="13">
         <v>-7033</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>-8501</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>-7395</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>-9273</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>-12159</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11">
+      <c r="E78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11">
+        <v>-378514</v>
+      </c>
+      <c r="J78" s="11">
         <v>-321882</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>-244550</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>-333223</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>-459339</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>-543679</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D79" s="13"/>
-      <c r="E79" s="13">
+      <c r="E79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="13">
+        <v>-1144</v>
+      </c>
+      <c r="J79" s="13">
         <v>-5543</v>
       </c>
-      <c r="F79" s="13">
+      <c r="K79" s="13">
         <v>-12804</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>-26041</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>-32020</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>-58574</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
+      <c r="E80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="11">
+        <v>-129459</v>
+      </c>
+      <c r="J80" s="11">
         <v>-83125</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>-91325</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>-119978</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>-164918</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>-214792</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
+        <v>-653450</v>
+      </c>
+      <c r="F81" s="15">
+        <v>-717180</v>
+      </c>
+      <c r="G81" s="15">
+        <v>-925967</v>
+      </c>
+      <c r="H81" s="15">
+        <v>-840391</v>
+      </c>
+      <c r="I81" s="15">
+        <v>-1334755</v>
+      </c>
+      <c r="J81" s="15">
         <v>-1400637</v>
       </c>
-      <c r="F81" s="15">
+      <c r="K81" s="15">
         <v>-1358126</v>
       </c>
-      <c r="G81" s="15">
+      <c r="L81" s="15">
         <v>-1616964</v>
       </c>
-      <c r="H81" s="15">
+      <c r="M81" s="15">
         <v>-2136850</v>
       </c>
-      <c r="I81" s="15">
+      <c r="N81" s="15">
         <v>-2494805</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -2225,10 +3175,15 @@
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
@@ -2247,10 +3202,25 @@
       <c r="I83" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="19">
+        <v>0</v>
+      </c>
+      <c r="K83" s="19">
+        <v>0</v>
+      </c>
+      <c r="L83" s="19">
+        <v>0</v>
+      </c>
+      <c r="M83" s="19">
+        <v>0</v>
+      </c>
+      <c r="N83" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -2259,10 +3229,15 @@
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
@@ -2281,41 +3256,71 @@
       <c r="I85" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="19">
+        <v>0</v>
+      </c>
+      <c r="K85" s="19">
+        <v>0</v>
+      </c>
+      <c r="L85" s="19">
+        <v>0</v>
+      </c>
+      <c r="M85" s="19">
+        <v>0</v>
+      </c>
+      <c r="N85" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D86" s="15"/>
-      <c r="E86" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>13</v>
+      <c r="E86" s="15">
+        <v>0</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0</v>
+      </c>
+      <c r="G86" s="15">
+        <v>0</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D87" s="19"/>
-      <c r="E87" s="19" t="s">
-        <v>13</v>
+      <c r="E87" s="19">
+        <v>0</v>
       </c>
       <c r="F87" s="19">
         <v>0</v>
@@ -2323,36 +3328,66 @@
       <c r="G87" s="19">
         <v>0</v>
       </c>
-      <c r="H87" s="19">
-        <v>0</v>
+      <c r="H87" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I87" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="19">
+        <v>0</v>
+      </c>
+      <c r="L87" s="19">
+        <v>0</v>
+      </c>
+      <c r="M87" s="19">
+        <v>0</v>
+      </c>
+      <c r="N87" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
+        <v>-653450</v>
+      </c>
+      <c r="F88" s="15">
+        <v>-717180</v>
+      </c>
+      <c r="G88" s="15">
+        <v>-925967</v>
+      </c>
+      <c r="H88" s="15">
+        <v>-840391</v>
+      </c>
+      <c r="I88" s="15">
+        <v>-1334755</v>
+      </c>
+      <c r="J88" s="15">
         <v>-1400637</v>
       </c>
-      <c r="F88" s="15">
+      <c r="K88" s="15">
         <v>-1358126</v>
       </c>
-      <c r="G88" s="15">
+      <c r="L88" s="15">
         <v>-1616964</v>
       </c>
-      <c r="H88" s="15">
+      <c r="M88" s="15">
         <v>-2136850</v>
       </c>
-      <c r="I88" s="15">
+      <c r="N88" s="15">
         <v>-2494805</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2361,8 +3396,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2371,8 +3411,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2381,10 +3426,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2403,8 +3453,23 @@
       <c r="I92" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2413,10 +3478,15 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2425,248 +3495,403 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>97487</v>
+      </c>
+      <c r="F95" s="11">
+        <v>130677</v>
+      </c>
+      <c r="G95" s="11">
+        <v>133643</v>
+      </c>
+      <c r="H95" s="11">
+        <v>158417</v>
+      </c>
+      <c r="I95" s="11">
+        <v>184198</v>
+      </c>
+      <c r="J95" s="11">
         <v>186168</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>207433</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>379647</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>643695</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>603184</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>13</v>
+      <c r="E96" s="13">
+        <v>58020</v>
+      </c>
+      <c r="F96" s="13">
+        <v>45730</v>
+      </c>
+      <c r="G96" s="13">
+        <v>139138</v>
+      </c>
+      <c r="H96" s="13">
+        <v>59465</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>-504</v>
+      </c>
+      <c r="F97" s="11">
+        <v>-407</v>
+      </c>
+      <c r="G97" s="11">
+        <v>12044</v>
+      </c>
+      <c r="H97" s="11">
+        <v>10019</v>
+      </c>
+      <c r="I97" s="11">
+        <v>5822</v>
+      </c>
+      <c r="J97" s="11">
         <v>3217</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>12938</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>56566</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>63420</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>72699</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>24409</v>
+      </c>
+      <c r="F98" s="13">
+        <v>2205</v>
+      </c>
+      <c r="G98" s="13">
+        <v>14947</v>
+      </c>
+      <c r="H98" s="13">
+        <v>35985</v>
+      </c>
+      <c r="I98" s="13">
+        <v>39110</v>
+      </c>
+      <c r="J98" s="13">
         <v>25311</v>
       </c>
-      <c r="F98" s="13">
+      <c r="K98" s="13">
         <v>16449</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>10663</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>17661</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>29260</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11">
+      <c r="E99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="11">
+        <v>28582</v>
+      </c>
+      <c r="J99" s="11">
         <v>19747</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>14299</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>32748</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>57943</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>91824</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>763</v>
+      </c>
+      <c r="F100" s="13">
+        <v>2857</v>
+      </c>
+      <c r="G100" s="13">
+        <v>1786</v>
+      </c>
+      <c r="H100" s="13">
+        <v>2051</v>
+      </c>
+      <c r="I100" s="13">
+        <v>3005</v>
+      </c>
+      <c r="J100" s="13">
         <v>4885</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>-888</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>4416</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>4671</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>5007</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11">
+      <c r="E101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11">
+        <v>96348</v>
+      </c>
+      <c r="J101" s="11">
         <v>85809</v>
       </c>
-      <c r="F101" s="11">
+      <c r="K101" s="11">
         <v>47732</v>
       </c>
-      <c r="G101" s="11">
+      <c r="L101" s="11">
         <v>136972</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>290063</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>326132</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D102" s="13"/>
-      <c r="E102" s="13">
+      <c r="E102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="13">
+        <v>313</v>
+      </c>
+      <c r="J102" s="13">
         <v>4460</v>
       </c>
-      <c r="F102" s="13">
+      <c r="K102" s="13">
         <v>-1595</v>
       </c>
-      <c r="G102" s="13">
+      <c r="L102" s="13">
         <v>12582</v>
       </c>
-      <c r="H102" s="13">
+      <c r="M102" s="13">
         <v>9861</v>
       </c>
-      <c r="I102" s="13">
+      <c r="N102" s="13">
         <v>8098</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11">
+      <c r="E103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11">
+        <v>44507</v>
+      </c>
+      <c r="J103" s="11">
         <v>40505</v>
       </c>
-      <c r="F103" s="11">
+      <c r="K103" s="11">
         <v>19781</v>
       </c>
-      <c r="G103" s="11">
+      <c r="L103" s="11">
         <v>70172</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>130625</v>
       </c>
-      <c r="I103" s="11">
+      <c r="N103" s="11">
         <v>140986</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
+        <v>180175</v>
+      </c>
+      <c r="F104" s="15">
+        <v>181062</v>
+      </c>
+      <c r="G104" s="15">
+        <v>301558</v>
+      </c>
+      <c r="H104" s="15">
+        <v>265937</v>
+      </c>
+      <c r="I104" s="15">
+        <v>401885</v>
+      </c>
+      <c r="J104" s="15">
         <v>370102</v>
       </c>
-      <c r="F104" s="15">
+      <c r="K104" s="15">
         <v>316149</v>
       </c>
-      <c r="G104" s="15">
+      <c r="L104" s="15">
         <v>703766</v>
       </c>
-      <c r="H104" s="15">
+      <c r="M104" s="15">
         <v>1217939</v>
       </c>
-      <c r="I104" s="15">
+      <c r="N104" s="15">
         <v>1277190</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -2675,10 +3900,15 @@
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
@@ -2697,10 +3927,25 @@
       <c r="I106" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="19">
+        <v>0</v>
+      </c>
+      <c r="K106" s="19">
+        <v>0</v>
+      </c>
+      <c r="L106" s="19">
+        <v>0</v>
+      </c>
+      <c r="M106" s="19">
+        <v>0</v>
+      </c>
+      <c r="N106" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -2709,10 +3954,15 @@
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -2731,26 +3981,56 @@
       <c r="I108" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="19">
+        <v>0</v>
+      </c>
+      <c r="K108" s="19">
+        <v>0</v>
+      </c>
+      <c r="L108" s="19">
+        <v>0</v>
+      </c>
+      <c r="M108" s="19">
+        <v>0</v>
+      </c>
+      <c r="N108" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
+        <v>180175</v>
+      </c>
+      <c r="F109" s="15">
+        <v>181062</v>
+      </c>
+      <c r="G109" s="15">
+        <v>301558</v>
+      </c>
+      <c r="H109" s="15">
+        <v>265937</v>
+      </c>
+      <c r="I109" s="15">
+        <v>401885</v>
+      </c>
+      <c r="J109" s="15">
         <v>370102</v>
       </c>
-      <c r="F109" s="15">
+      <c r="K109" s="15">
         <v>316149</v>
       </c>
-      <c r="G109" s="15">
+      <c r="L109" s="15">
         <v>703766</v>
       </c>
-      <c r="H109" s="15">
+      <c r="M109" s="15">
         <v>1217939</v>
       </c>
-      <c r="I109" s="15">
+      <c r="N109" s="15">
         <v>1277190</v>
       </c>
     </row>
